--- a/docs/categorytree_tests.xlsx
+++ b/docs/categorytree_tests.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\source\repos\tradecontrol.web\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188B64FD-48C4-4C25-80D6-18B087CEC39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2887D8D0-10BA-4D42-86D6-557CCDF741F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E71052EB-0A28-467C-93A5-910E8E305FC8}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E71052EB-0A28-467C-93A5-910E8E305FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="categorytree_tests" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">categorytree_tests!$A$1:$L$40</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -43,9 +46,6 @@
     <t>ExpectedResult</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>ScriptStub</t>
   </si>
   <si>
@@ -710,6 +710,42 @@
   </si>
   <si>
     <t>category-tree.view.persist-expanded.ts</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Set Profit/Vat actions on Detail pane unresponsive</t>
+  </si>
+  <si>
+    <t>Created but does not select - https://localhost:5001/Cash/CategoryTree?key=T46456&amp;parentKey=__DISCONNECTED__</t>
+  </si>
+  <si>
+    <t>Expand Selected only. Drag/drop doesn’t work</t>
+  </si>
+  <si>
+    <t>CreateCashCode cancel does reselect source node</t>
+  </si>
+  <si>
+    <t>EditCashCode and DeleteCashCode cancel inert</t>
+  </si>
+  <si>
+    <t>See above</t>
   </si>
 </sst>
 </file>
@@ -852,7 +888,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1030,6 +1066,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1202,9 +1244,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1250,7 +1293,71 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1580,13 +1687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BF1B9B-0125-4313-866F-4DDDD830236C}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,14 +1702,17 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
     <col min="7" max="7" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="99" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,1025 +1737,1311 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
       <c r="I4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
       <c r="I5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>232</v>
+      </c>
+      <c r="J14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" t="s">
+        <v>232</v>
+      </c>
+      <c r="J17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J19" t="s">
+        <v>233</v>
+      </c>
+      <c r="L19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" t="s">
+        <v>233</v>
+      </c>
+      <c r="L21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" t="s">
+        <v>232</v>
+      </c>
+      <c r="J23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" t="s">
+        <v>182</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" t="s">
+        <v>232</v>
+      </c>
+      <c r="J37" t="s">
+        <v>233</v>
+      </c>
+      <c r="L37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" t="s">
         <v>128</v>
       </c>
-      <c r="F22" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" t="s">
-        <v>136</v>
-      </c>
-      <c r="I23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="J39" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" t="s">
         <v>128</v>
       </c>
-      <c r="F24" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" t="s">
-        <v>141</v>
-      </c>
-      <c r="I24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G27" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" t="s">
-        <v>160</v>
-      </c>
-      <c r="I28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>171</v>
-      </c>
-      <c r="I30" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" t="s">
-        <v>182</v>
-      </c>
-      <c r="I32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" t="s">
-        <v>177</v>
-      </c>
-      <c r="G33" t="s">
-        <v>186</v>
-      </c>
-      <c r="I33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" t="s">
-        <v>192</v>
-      </c>
-      <c r="I34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="B35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>199</v>
-      </c>
-      <c r="I35" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
-        <v>202</v>
-      </c>
-      <c r="E36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>203</v>
-      </c>
-      <c r="I36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B37" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" t="s">
-        <v>215</v>
-      </c>
-      <c r="F38" t="s">
-        <v>216</v>
-      </c>
-      <c r="G38" t="s">
-        <v>217</v>
-      </c>
-      <c r="I38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" t="s">
-        <v>223</v>
-      </c>
-      <c r="I39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B40" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
-        <v>226</v>
-      </c>
-      <c r="E40" t="s">
-        <v>227</v>
-      </c>
-      <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>228</v>
-      </c>
-      <c r="I40" t="s">
-        <v>229</v>
+      <c r="J40" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L40" xr:uid="{E4BF1B9B-0125-4313-866F-4DDDD830236C}"/>
+  <conditionalFormatting sqref="L7 L16 L12:L13 I1:K1048576 L19:L21 L29:L30 L37">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:K1048576 L19:L21 L29:L30 L37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/categorytree_tests.xlsx
+++ b/docs/categorytree_tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\source\repos\tradecontrol.web\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2887D8D0-10BA-4D42-86D6-557CCDF741F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3534D52F-6F35-43C0-9FA7-1B9E95A0C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E71052EB-0A28-467C-93A5-910E8E305FC8}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="15420" xr2:uid="{E71052EB-0A28-467C-93A5-910E8E305FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="categorytree_tests" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -734,9 +734,6 @@
   </si>
   <si>
     <t>Created but does not select - https://localhost:5001/Cash/CategoryTree?key=T46456&amp;parentKey=__DISCONNECTED__</t>
-  </si>
-  <si>
-    <t>Expand Selected only. Drag/drop doesn’t work</t>
   </si>
   <si>
     <t>CreateCashCode cancel does reselect source node</t>
@@ -1293,14 +1290,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1318,28 +1308,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1690,10 +1659,10 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1905,7 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J7" t="s">
         <v>233</v>
@@ -2099,7 +2068,7 @@
         <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
         <v>232</v>
@@ -2131,7 +2100,7 @@
         <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J13" t="s">
         <v>232</v>
@@ -2227,7 +2196,7 @@
         <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J16" t="s">
         <v>232</v>
@@ -2396,10 +2365,7 @@
         <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
-      </c>
-      <c r="L21" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2658,7 +2624,7 @@
         <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2687,13 +2653,13 @@
         <v>171</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J30" t="s">
         <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2754,7 +2720,7 @@
         <v>182</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
         <v>232</v>
@@ -2920,7 +2886,7 @@
         <v>233</v>
       </c>
       <c r="L37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3021,7 +2987,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L40" xr:uid="{E4BF1B9B-0125-4313-866F-4DDDD830236C}"/>
-  <conditionalFormatting sqref="L7 L16 L12:L13 I1:K1048576 L19:L21 L29:L30 L37">
+  <conditionalFormatting sqref="I1:K1048576 L7 L12:L13 L16 L19:L21 L29:L30 L37">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -3029,17 +2995,17 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:K1048576 L19:L21 L29:L30 L37">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:K1048576 L19:L21 L29:L30 L37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
